--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/17_Bingöl_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/17_Bingöl_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC039F6E-0944-4421-A0F6-D6AADF357BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1E9598C-0771-4C2F-BF07-7797A7E755EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{878BFE69-5C86-4EBF-BF07-FFF069827BFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{D9AF3B59-4FD8-464A-AD2E-B05C3F21FA75}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E6F3726C-A8A8-4E96-BADD-80494A66667F}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E4D8513F-1CAD-4926-A0B8-8432BA33979B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{26E5E965-5177-4367-9B39-FA53BB36E371}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{CC8E3214-8DF6-4DDB-B098-62F253338F16}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{3BDFC143-616E-46DD-BE50-0B4FE12E459E}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{2D5A2933-A94B-4C72-8A3F-E9F8B870AEC0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{49762F6A-E638-4C2A-9E7D-AB055B5E21F2}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F1225156-A2B7-48F2-87F5-965A21F9F54E}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8A8F1E54-258C-4228-9484-32A5AB348DBA}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{E74A58B2-A135-41D0-BA34-416BCA4600B1}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{4FFFE536-D461-48A7-8C3D-8B525E56ED69}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{19943E3C-071D-4856-8C59-88D5986EF328}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{5CAF5824-9D34-4F9A-AFCE-0D767B2E26DB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{F6F533DE-69AB-48E8-B832-A6CD595E189C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800AD9B3-8709-4015-9179-6BAAD3382367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE68AB8-62E3-4563-8E80-F16B838981FA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2416,7 +2416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972593E8-A32A-475A-B746-82ABE13CEE1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5063A3A1-9EF0-4C79-9285-5398699510CF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3657,7 +3657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CED2C4-930A-457B-BAF6-F483102F0F19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A6E61D-8959-4EA2-BF17-503D9F15948E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4896,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CE248F-D7F9-41AC-8C4F-7C24A7105E0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F2C895-BC53-4108-A320-9630E3697D50}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6133,7 +6133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B645FE-D5FF-40C3-92A1-41BE0F7EAF3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA4150-61D9-4274-B8A1-CD23EFB3A935}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7356,7 +7356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD00F6E8-80E2-4549-AFC6-AFC0D2751A29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FC97F4-AD9F-47E6-B355-78F953D17737}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
